--- a/Documenti/Project Satus.xlsx
+++ b/Documenti/Project Satus.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GPOI\tournament creator\Tournament-Creator\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t.eccher\Documents\GitHub\Tournament-Creator\Documenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Attività</t>
   </si>
@@ -60,6 +60,27 @@
   </si>
   <si>
     <t>Creazione Database</t>
+  </si>
+  <si>
+    <t>Creazione Torneo</t>
+  </si>
+  <si>
+    <t>Gestione Utenti</t>
+  </si>
+  <si>
+    <t>Gestione Squadre</t>
+  </si>
+  <si>
+    <t>Gestione Incontri</t>
+  </si>
+  <si>
+    <t>Gestione risultati</t>
+  </si>
+  <si>
+    <t>Creazione WBS</t>
+  </si>
+  <si>
+    <t>Creazione Project Charter</t>
   </si>
 </sst>
 </file>
@@ -385,12 +406,12 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
@@ -506,13 +527,16 @@
         <v>43157</v>
       </c>
       <c r="C6" s="1">
-        <v>43202</v>
+        <v>43164</v>
       </c>
       <c r="D6" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E6" s="1">
         <v>43157</v>
+      </c>
+      <c r="F6" s="1">
+        <v>43202</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -520,10 +544,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>43158</v>
+        <v>43157</v>
       </c>
       <c r="C7" s="1">
-        <v>43179</v>
+        <v>43164</v>
       </c>
       <c r="D7" s="2">
         <v>100</v>
@@ -536,44 +560,149 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43178</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43178</v>
+      </c>
+      <c r="D8" s="2">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1">
+        <v>43164</v>
+      </c>
+      <c r="F8" s="1">
+        <v>43164</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43178</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43178</v>
+      </c>
+      <c r="D9" s="2">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1">
+        <v>43164</v>
+      </c>
+      <c r="F9" s="1">
+        <v>43164</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43164</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43178</v>
+      </c>
+      <c r="D10" s="2">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1">
+        <v>43186</v>
+      </c>
+      <c r="F10" s="1">
+        <v>43186</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43164</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43178</v>
+      </c>
+      <c r="D11" s="2">
+        <v>100</v>
+      </c>
+      <c r="E11" s="1">
+        <v>43186</v>
+      </c>
+      <c r="F11" s="1">
+        <v>43186</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43164</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43178</v>
+      </c>
+      <c r="D12" s="2">
+        <v>100</v>
+      </c>
+      <c r="E12" s="1">
+        <v>43206</v>
+      </c>
+      <c r="F12" s="1">
+        <v>43234</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43178</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43213</v>
+      </c>
+      <c r="D13" s="2">
+        <v>100</v>
+      </c>
+      <c r="E13" s="1">
+        <v>43234</v>
+      </c>
+      <c r="F13" s="1">
+        <v>43234</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43213</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43241</v>
+      </c>
+      <c r="D14" s="2">
+        <v>70</v>
+      </c>
+      <c r="E14" s="1">
+        <v>43239</v>
+      </c>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
